--- a/Data/State-by-state breakdown of 102 rural hospital closures.xlsx
+++ b/Data/State-by-state breakdown of 102 rural hospital closures.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lciot\OneDrive\UticaCollege\DSC611\Group_Work\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lciot\OneDrive\UticaCollege\DSC611\Group_Work\Tableau\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C979452E-075C-4002-B34F-B530A9F628DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B46C9B45-9817-4C2C-841D-83C6BCD28964}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C979452E-075C-4002-B34F-B530A9F628DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F03FC332-85C8-4030-B5F2-59C40521A7E5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="33946" windowHeight="22096" xr2:uid="{1C14B6F6-F370-410B-96C8-A8578B9CD635}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="25320" windowHeight="16155" xr2:uid="{1C14B6F6-F370-410B-96C8-A8578B9CD635}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospital Closures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="257">
   <si>
     <t xml:space="preserve">State </t>
   </si>
@@ -168,9 +167,6 @@
     <t>Kennett</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>Nevada</t>
   </si>
   <si>
@@ -727,6 +723,84 @@
   </si>
   <si>
     <t>Graceville</t>
+  </si>
+  <si>
+    <t>State_2_Letter</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WI</t>
   </si>
 </sst>
 </file>
@@ -1082,1234 +1156,1313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E3C5C8-694E-42F0-B422-A4BBDD713214}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1">
+        <v>35045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="1">
+        <v>36442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D6" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1">
-        <v>35045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="1">
-        <v>36323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="1">
-        <v>36442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1">
+        <v>36274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="1">
-        <v>36274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>36784</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1">
+        <v>85132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="1">
-        <v>85607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="1">
-        <v>85132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>86401</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1">
+        <v>95969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="1">
-        <v>95969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="E12" s="1">
+        <v>93210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>194</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1">
-        <v>93210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="E13" s="1">
+        <v>95932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>195</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="1">
-        <v>95932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>93631</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="1">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="1">
         <v>32440</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="1">
-        <v>39813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" s="1">
+        <v>31537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="1">
-        <v>31537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" s="1">
+        <v>30533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="1">
-        <v>30533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" s="1">
+        <v>30643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="1">
-        <v>30643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" s="1">
+        <v>30428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="1">
-        <v>30428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" s="1">
+        <v>30540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1">
-        <v>30540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>31825</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1">
         <v>61364</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="1">
+        <v>67530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="1">
-        <v>67530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>66434</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>204</v>
-      </c>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="1">
         <v>66701</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="1">
         <v>67301</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>197</v>
-      </c>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="1">
+        <v>196</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1">
         <v>67356</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="1">
-        <v>40359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="1">
+        <v>40311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="1">
-        <v>40311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" s="1">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="1">
-        <v>42041</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>42728</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="1">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" s="1">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="1">
-        <v>4073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>4538</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="1">
+        <v>210</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="1">
         <v>1247</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="1">
+        <v>206</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="1">
         <v>49721</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="1">
+        <v>55063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="1">
-        <v>55063</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>56307</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="1">
-        <v>39038</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="E41" s="1">
+        <v>39345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="1">
+        <v>39120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="1">
+        <v>39747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="1">
-        <v>39345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="1">
-        <v>39120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="1">
-        <v>39747</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>38646</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>39</v>
       </c>
       <c r="B45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="1">
+        <v>63640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="1">
-        <v>63640</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" s="1">
+        <v>64776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="1">
-        <v>64776</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" s="1">
+        <v>63638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="1">
-        <v>63638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E48" s="1">
+        <v>63935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="1">
-        <v>63935</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" s="1">
+        <v>63857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="1">
-        <v>63857</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="E50" s="1">
+        <v>68781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="1">
-        <v>68781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="E51" s="1">
+        <v>89049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="1">
-        <v>89049</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E52" s="1">
+        <v>12883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="1">
-        <v>12883</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="E53" s="1">
+        <v>27874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="1">
-        <v>27874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+      <c r="E54" s="1">
+        <v>27810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D55" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="1">
-        <v>27810</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+      <c r="E55" s="1">
+        <v>27962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="1">
+        <v>28605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="1">
+        <v>27006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D58" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="1">
-        <v>27962</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+      <c r="E58" s="1">
+        <v>27055</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="1">
+        <v>74432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="1">
+        <v>74578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="1">
+        <v>73542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
         <v>214</v>
       </c>
-      <c r="C56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="1">
-        <v>28605</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="1">
-        <v>27006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="1">
-        <v>27055</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="1">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="1">
-        <v>43420</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" s="1">
-        <v>74432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="1">
-        <v>74578</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
+      <c r="D64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="1">
+        <v>74401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="1">
+        <v>73075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="1">
+        <v>73662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>59</v>
       </c>
-      <c r="C63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="1">
-        <v>73542</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="1">
-        <v>74401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B65" t="s">
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="1">
+        <v>18452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="1">
+        <v>17921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="1">
+        <v>29180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="1">
+        <v>29512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="1">
+        <v>29812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="1">
+        <v>29003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="1">
+        <v>57450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="1">
+        <v>37317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="1">
+        <v>38551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="1">
+        <v>38382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="1">
+        <v>38012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
         <v>218</v>
       </c>
-      <c r="C65" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="1">
-        <v>73075</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="1">
-        <v>73662</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="1">
-        <v>18452</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="1">
-        <v>17921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="1">
-        <v>29180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="1">
-        <v>29512</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="1">
-        <v>29812</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C72" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="1">
-        <v>29003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="1">
-        <v>57450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="1">
-        <v>37317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="1">
-        <v>38551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="1">
-        <v>38382</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B77" t="s">
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="1">
+        <v>38343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
         <v>73</v>
       </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="1">
-        <v>38012</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B78" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D79" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="1">
-        <v>38343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>37347</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>174</v>
-      </c>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" s="1">
         <v>37331</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="1">
+        <v>38201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="1">
+        <v>38375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="1">
+        <v>37355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="1">
+        <v>78336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="1">
+        <v>75426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="1">
+        <v>75644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" s="1">
+        <v>75457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" s="1">
+        <v>75862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" s="1">
+        <v>75563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="1">
+        <v>77488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
         <v>220</v>
       </c>
-      <c r="C81" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="1">
-        <v>38201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" s="1">
-        <v>38375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="1">
-        <v>37355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="1">
-        <v>78336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>179</v>
-      </c>
-      <c r="D85" s="1">
-        <v>75426</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="1">
-        <v>75644</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" s="1">
-        <v>75457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="1">
-        <v>75862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="1">
-        <v>75563</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B90" t="s">
+      <c r="D91" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" s="1">
+        <v>75428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C92" t="s">
         <v>84</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D92" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="1">
-        <v>77488</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B91" t="s">
+      <c r="E92" s="1">
+        <v>76692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="1">
+        <v>76520</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" t="s">
+        <v>183</v>
+      </c>
+      <c r="E94" s="1">
+        <v>76567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="1">
+        <v>78017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C96" t="s">
         <v>221</v>
       </c>
-      <c r="C91" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="1">
-        <v>75428</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="1">
-        <v>76692</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" t="s">
-        <v>183</v>
-      </c>
-      <c r="D93" s="1">
-        <v>76520</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
+      <c r="D96" t="s">
         <v>227</v>
       </c>
-      <c r="C94" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="1">
-        <v>76567</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B95" t="s">
+      <c r="E96" s="1">
+        <v>75160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" s="1">
+        <v>75935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="1">
+        <v>79553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C99" t="s">
         <v>86</v>
       </c>
-      <c r="C95" t="s">
-        <v>185</v>
-      </c>
-      <c r="D95" s="1">
-        <v>78017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B96" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96" t="s">
-        <v>228</v>
-      </c>
-      <c r="D96" s="1">
-        <v>75160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B97" t="s">
+      <c r="D99" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="1">
+        <v>75835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C100" t="s">
         <v>223</v>
       </c>
-      <c r="C97" t="s">
-        <v>186</v>
-      </c>
-      <c r="D97" s="1">
-        <v>75935</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
+      <c r="D100" t="s">
         <v>229</v>
       </c>
-      <c r="C98" t="s">
-        <v>187</v>
-      </c>
-      <c r="D98" s="1">
-        <v>79553</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
+      <c r="E100" s="1">
+        <v>76426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
         <v>87</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" t="s">
         <v>188</v>
       </c>
-      <c r="D99" s="1">
-        <v>75835</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" t="s">
-        <v>230</v>
-      </c>
-      <c r="D100" s="1">
-        <v>76426</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="E101" s="1">
+        <v>24277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C102" t="s">
         <v>89</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D102" t="s">
         <v>189</v>
       </c>
-      <c r="D101" s="1">
-        <v>24277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
+      <c r="E102" s="1">
+        <v>24171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>90</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="1">
-        <v>24171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>91</v>
-      </c>
-      <c r="B103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" t="s">
-        <v>191</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>54612</v>
       </c>
     </row>
